--- a/Documentacion/Listado ejecucion .xlsx
+++ b/Documentacion/Listado ejecucion .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\J\Dropbox\Gesecology\squeesar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jespi\Documents\GitHub\ETLSqueeSAR\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
-  <si>
-    <t>Tipo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Nombre Objeto</t>
   </si>
   <si>
-    <t>Nuevo?</t>
-  </si>
-  <si>
     <t>Esquema</t>
   </si>
   <si>
@@ -47,9 +41,6 @@
     <t>squeesar</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>poligono_resumen</t>
   </si>
   <si>
@@ -68,15 +59,6 @@
     <t>poligonos</t>
   </si>
   <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>poligono</t>
-  </si>
-  <si>
     <t>registrar_tabla_squeesar</t>
   </si>
   <si>
@@ -119,7 +101,13 @@
     <t>trg_guarda_poligono</t>
   </si>
   <si>
-    <t>Orden Ejecucion</t>
+    <t>Tipo Script</t>
+  </si>
+  <si>
+    <t>Tipo Objeto</t>
+  </si>
+  <si>
+    <t>Creacion</t>
   </si>
 </sst>
 </file>
@@ -143,21 +131,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,36 +205,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,375 +495,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1">
-        <v>6</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>7</v>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
